--- a/sample-data/exams ocr 2018.xlsx
+++ b/sample-data/exams ocr 2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alic/workspace/examdb/sample-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0AF5DFDE-89A1-B94B-B4CC-25F23ADAF739}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9F20207D-A20D-D643-9828-04B5F1D9B05A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="863" uniqueCount="282">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="865" uniqueCount="283">
   <si>
     <t>Date</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>1h 15m</t>
+  </si>
+  <si>
+    <t>Physical Education</t>
   </si>
   <si>
     <t>Drama</t>
@@ -3023,11 +3026,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L120"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J120" sqref="J120"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3084,7 +3087,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="d">
         <v>2018-06-06</v>
@@ -3093,24 +3096,24 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="d">
         <v>2018-06-13</v>
@@ -3119,24 +3122,24 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="d">
         <v>2018-06-18</v>
@@ -3145,24 +3148,24 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="d">
         <v>2018-06-14</v>
@@ -3171,24 +3174,24 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2" t="d">
         <v>2018-06-18</v>
@@ -3197,24 +3200,24 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="d">
         <v>2018-05-15</v>
@@ -3223,16 +3226,16 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
@@ -3240,7 +3243,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="d">
         <v>2018-06-11</v>
@@ -3249,16 +3252,16 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
@@ -3266,7 +3269,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="d">
         <v>2018-06-15</v>
@@ -3275,16 +3278,16 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
@@ -3292,7 +3295,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="d">
         <v>2018-06-11</v>
@@ -3301,16 +3304,16 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
@@ -3318,7 +3321,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="d">
         <v>2018-05-15</v>
@@ -3327,16 +3330,16 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
@@ -3344,7 +3347,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2" t="d">
         <v>2018-06-11</v>
@@ -3353,16 +3356,16 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J12" t="s">
         <v>14</v>
@@ -3370,7 +3373,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="d">
         <v>2018-05-15</v>
@@ -3379,16 +3382,16 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J13" t="s">
         <v>14</v>
@@ -3396,7 +3399,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="d">
         <v>2018-06-11</v>
@@ -3405,16 +3408,16 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J14" t="s">
         <v>14</v>
@@ -3422,7 +3425,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2" t="d">
         <v>2018-05-23</v>
@@ -3431,16 +3434,16 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s">
         <v>13</v>
@@ -3448,7 +3451,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="d">
         <v>2018-06-07</v>
@@ -3457,16 +3460,16 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J16" t="s">
         <v>13</v>
@@ -3474,7 +3477,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="d">
         <v>2018-06-20</v>
@@ -3483,16 +3486,16 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
@@ -3500,7 +3503,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="d">
         <v>2018-06-18</v>
@@ -3509,24 +3512,24 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="d">
         <v>2018-05-23</v>
@@ -3535,24 +3538,24 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="d">
         <v>2018-06-06</v>
@@ -3561,16 +3564,16 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J20" t="s">
         <v>13</v>
@@ -3578,7 +3581,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="d">
         <v>2018-05-17</v>
@@ -3587,16 +3590,16 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F21" t="s">
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J21" t="s">
         <v>14</v>
@@ -3604,7 +3607,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="d">
         <v>2018-06-13</v>
@@ -3613,16 +3616,16 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" t="s">
         <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J22" t="s">
         <v>14</v>
@@ -3630,7 +3633,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="d">
         <v>2018-05-17</v>
@@ -3639,16 +3642,16 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F23" t="s">
         <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J23" t="s">
         <v>14</v>
@@ -3656,7 +3659,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="d">
         <v>2018-06-13</v>
@@ -3665,16 +3668,16 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F24" t="s">
         <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J24" t="s">
         <v>14</v>
@@ -3682,7 +3685,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="d">
         <v>2018-05-17</v>
@@ -3691,16 +3694,16 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J25" t="s">
         <v>14</v>
@@ -3708,7 +3711,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2" t="d">
         <v>2018-06-13</v>
@@ -3717,16 +3720,16 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J26" t="s">
         <v>14</v>
@@ -3734,7 +3737,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="d">
         <v>2018-05-17</v>
@@ -3743,16 +3746,16 @@
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F27" t="s">
         <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J27" t="s">
         <v>14</v>
@@ -3760,7 +3763,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2" t="d">
         <v>2018-06-13</v>
@@ -3769,16 +3772,16 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F28" t="s">
         <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J28" t="s">
         <v>14</v>
@@ -3786,7 +3789,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2" t="d">
         <v>2018-06-15</v>
@@ -3795,24 +3798,24 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F29" t="s">
         <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2" t="d">
         <v>2018-06-18</v>
@@ -3821,16 +3824,16 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F30" t="s">
         <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J30" t="s">
         <v>14</v>
@@ -3838,7 +3841,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2" t="d">
         <v>2018-06-22</v>
@@ -3847,24 +3850,24 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F31" t="s">
         <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2" t="d">
         <v>2018-06-04</v>
@@ -3873,27 +3876,27 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F32" t="s">
         <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="d">
         <v>2018-06-07</v>
@@ -3902,27 +3905,27 @@
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F33" t="s">
         <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="d">
         <v>2018-06-14</v>
@@ -3931,27 +3934,27 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2" t="d">
         <v>2018-05-18</v>
@@ -3960,16 +3963,16 @@
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J35" t="s">
         <v>13</v>
@@ -3977,7 +3980,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" s="2" t="d">
         <v>2018-05-23</v>
@@ -3986,24 +3989,24 @@
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F36" t="s">
         <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B37" s="2" t="d">
         <v>2018-05-23</v>
@@ -4012,24 +4015,24 @@
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B38" s="2" t="d">
         <v>2018-06-06</v>
@@ -4038,24 +4041,24 @@
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
       </c>
       <c r="G38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B39" s="2" t="d">
         <v>2018-06-06</v>
@@ -4064,24 +4067,24 @@
         <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F39" t="s">
         <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B40" s="2" t="d">
         <v>2018-06-14</v>
@@ -4090,24 +4093,24 @@
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F40" t="s">
         <v>20</v>
       </c>
       <c r="G40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B41" s="2" t="d">
         <v>2018-05-14</v>
@@ -4116,16 +4119,16 @@
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
         <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s">
         <v>13</v>
@@ -4133,7 +4136,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B42" s="2" t="d">
         <v>2018-05-17</v>
@@ -4142,16 +4145,16 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F42" t="s">
         <v>20</v>
       </c>
       <c r="G42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J42" t="s">
         <v>13</v>
@@ -4159,7 +4162,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B43" s="2" t="d">
         <v>2018-06-22</v>
@@ -4168,16 +4171,16 @@
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E43" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F43" t="s">
         <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J43" t="s">
         <v>13</v>
@@ -4185,7 +4188,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B44" s="2" t="d">
         <v>2018-05-25</v>
@@ -4194,19 +4197,19 @@
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E44" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F44" t="s">
         <v>20</v>
       </c>
       <c r="G44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J44" t="s">
         <v>13</v>
@@ -4214,7 +4217,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B45" s="2" t="d">
         <v>2018-06-19</v>
@@ -4223,16 +4226,16 @@
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F45" t="s">
         <v>20</v>
       </c>
       <c r="G45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J45" t="s">
         <v>13</v>
@@ -4240,7 +4243,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B46" s="2" t="d">
         <v>2018-06-07</v>
@@ -4249,16 +4252,16 @@
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F46" t="s">
         <v>20</v>
       </c>
       <c r="G46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J46" t="s">
         <v>13</v>
@@ -4266,7 +4269,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B47" s="2" t="d">
         <v>2018-06-14</v>
@@ -4275,16 +4278,16 @@
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F47" t="s">
         <v>20</v>
       </c>
       <c r="G47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J47" t="s">
         <v>13</v>
@@ -4292,7 +4295,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B48" s="2" t="d">
         <v>2018-06-25</v>
@@ -4301,16 +4304,16 @@
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E48" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F48" t="s">
         <v>20</v>
       </c>
       <c r="G48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J48" t="s">
         <v>13</v>
@@ -4318,7 +4321,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B49" s="2" t="d">
         <v>2018-05-18</v>
@@ -4327,16 +4330,16 @@
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F49" t="s">
         <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J49" t="s">
         <v>13</v>
@@ -4344,7 +4347,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B50" s="2" t="d">
         <v>2018-05-21</v>
@@ -4353,24 +4356,24 @@
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F50" t="s">
         <v>20</v>
       </c>
       <c r="G50" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B51" s="2" t="d">
         <v>2018-06-06</v>
@@ -4379,24 +4382,24 @@
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E51" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
       </c>
       <c r="G51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J51" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B52" s="2" t="d">
         <v>2018-05-16</v>
@@ -4405,24 +4408,24 @@
         <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E52" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
       </c>
       <c r="G52" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J52" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B53" s="2" t="d">
         <v>2018-05-21</v>
@@ -4431,27 +4434,27 @@
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E53" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F53" t="s">
         <v>20</v>
       </c>
       <c r="G53" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H53" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B54" s="2" t="d">
         <v>2018-06-06</v>
@@ -4460,27 +4463,27 @@
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E54" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F54" t="s">
         <v>20</v>
       </c>
       <c r="G54" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H54" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J54" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B55" s="2" t="d">
         <v>2018-05-16</v>
@@ -4489,27 +4492,27 @@
         <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E55" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F55" t="s">
         <v>20</v>
       </c>
       <c r="G55" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H55" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J55" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B56" s="2" t="d">
         <v>2018-06-04</v>
@@ -4518,24 +4521,24 @@
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E56" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F56" t="s">
         <v>20</v>
       </c>
       <c r="G56" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J56" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B57" s="2" t="d">
         <v>2018-06-04</v>
@@ -4544,24 +4547,24 @@
         <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E57" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
       </c>
       <c r="G57" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J57" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B58" s="2" t="d">
         <v>2018-06-06</v>
@@ -4570,16 +4573,16 @@
         <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
       </c>
       <c r="G58" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J58" t="s">
         <v>13</v>
@@ -4587,7 +4590,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B59" s="2" t="d">
         <v>2018-05-21</v>
@@ -4596,27 +4599,27 @@
         <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F59" t="s">
         <v>20</v>
       </c>
       <c r="G59" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H59" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J59" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B60" s="2" t="d">
         <v>2018-06-04</v>
@@ -4625,27 +4628,27 @@
         <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E60" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F60" t="s">
         <v>20</v>
       </c>
       <c r="G60" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H60" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B61" s="2" t="d">
         <v>2018-06-05</v>
@@ -4654,24 +4657,24 @@
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F61" t="s">
         <v>20</v>
       </c>
       <c r="G61" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J61" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B62" s="2" t="d">
         <v>2018-06-08</v>
@@ -4680,24 +4683,24 @@
         <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F62" t="s">
         <v>20</v>
       </c>
       <c r="G62" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J62" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B63" s="2" t="d">
         <v>2018-05-22</v>
@@ -4706,24 +4709,24 @@
         <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E63" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F63" t="s">
         <v>20</v>
       </c>
       <c r="G63" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J63" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B64" s="2" t="d">
         <v>2018-05-25</v>
@@ -4732,24 +4735,24 @@
         <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E64" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F64" t="s">
         <v>20</v>
       </c>
       <c r="G64" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J64" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B65" s="2" t="d">
         <v>2018-06-11</v>
@@ -4758,27 +4761,27 @@
         <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E65" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F65" t="s">
         <v>20</v>
       </c>
       <c r="G65" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H65" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J65" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B66" s="2" t="d">
         <v>2018-06-13</v>
@@ -4787,27 +4790,27 @@
         <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E66" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
       </c>
       <c r="G66" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H66" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J66" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B67" s="2" t="d">
         <v>2018-06-15</v>
@@ -4816,27 +4819,27 @@
         <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E67" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
       </c>
       <c r="G67" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H67" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J67" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B68" s="2" t="d">
         <v>2018-06-14</v>
@@ -4845,16 +4848,16 @@
         <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E68" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F68" t="s">
         <v>20</v>
       </c>
       <c r="G68" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J68" t="s">
         <v>13</v>
@@ -4862,7 +4865,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B69" s="2" t="d">
         <v>2018-05-22</v>
@@ -4871,24 +4874,24 @@
         <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E69" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F69" t="s">
         <v>20</v>
       </c>
       <c r="G69" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J69" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B70" s="2" t="d">
         <v>2018-06-05</v>
@@ -4897,24 +4900,24 @@
         <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E70" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F70" t="s">
         <v>20</v>
       </c>
       <c r="G70" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J70" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B71" s="2" t="d">
         <v>2018-06-11</v>
@@ -4923,16 +4926,16 @@
         <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E71" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
       </c>
       <c r="G71" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J71" t="s">
         <v>13</v>
@@ -4940,7 +4943,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B72" s="2" t="d">
         <v>2018-05-22</v>
@@ -4949,16 +4952,16 @@
         <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E72" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
       </c>
       <c r="G72" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J72" t="s">
         <v>21</v>
@@ -4966,7 +4969,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B73" s="2" t="d">
         <v>2018-06-05</v>
@@ -4975,16 +4978,16 @@
         <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E73" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F73" t="s">
         <v>20</v>
       </c>
       <c r="G73" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J73" t="s">
         <v>21</v>
@@ -4992,7 +4995,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B74" s="2" t="d">
         <v>2018-06-11</v>
@@ -5001,16 +5004,16 @@
         <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E74" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F74" t="s">
         <v>20</v>
       </c>
       <c r="G74" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J74" t="s">
         <v>13</v>
@@ -5018,7 +5021,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B75" s="2" t="d">
         <v>2018-05-21</v>
@@ -5027,24 +5030,24 @@
         <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E75" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F75" t="s">
         <v>20</v>
       </c>
       <c r="G75" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J75" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B76" s="2" t="d">
         <v>2018-06-06</v>
@@ -5053,24 +5056,24 @@
         <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E76" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F76" t="s">
         <v>20</v>
       </c>
       <c r="G76" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J76" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B77" s="2" t="d">
         <v>2018-05-16</v>
@@ -5079,24 +5082,24 @@
         <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E77" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F77" t="s">
         <v>20</v>
       </c>
       <c r="G77" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J77" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B78" s="2" t="d">
         <v>2018-05-21</v>
@@ -5105,27 +5108,27 @@
         <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E78" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F78" t="s">
         <v>20</v>
       </c>
       <c r="G78" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H78" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J78" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B79" s="2" t="d">
         <v>2018-06-06</v>
@@ -5134,27 +5137,27 @@
         <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E79" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F79" t="s">
         <v>20</v>
       </c>
       <c r="G79" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H79" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J79" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B80" s="2" t="d">
         <v>2018-05-16</v>
@@ -5163,27 +5166,27 @@
         <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E80" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F80" t="s">
         <v>20</v>
       </c>
       <c r="G80" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H80" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J80" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B81" s="2" t="d">
         <v>2018-06-13</v>
@@ -5192,24 +5195,24 @@
         <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
         <v>20</v>
       </c>
       <c r="G81" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J81" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B82" s="2" t="d">
         <v>2018-06-19</v>
@@ -5218,24 +5221,24 @@
         <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F82" t="s">
         <v>20</v>
       </c>
       <c r="G82" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J82" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B83" s="2" t="d">
         <v>2018-06-04</v>
@@ -5244,16 +5247,16 @@
         <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E83" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
       </c>
       <c r="G83" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J83" t="s">
         <v>14</v>
@@ -5261,7 +5264,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B84" s="2" t="d">
         <v>2018-06-08</v>
@@ -5270,24 +5273,24 @@
         <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E84" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F84" t="s">
         <v>20</v>
       </c>
       <c r="G84" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J84" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B85" s="2" t="d">
         <v>2018-06-12</v>
@@ -5296,16 +5299,16 @@
         <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E85" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F85" t="s">
         <v>20</v>
       </c>
       <c r="G85" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J85" t="s">
         <v>21</v>
@@ -5313,7 +5316,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B86" s="2" t="d">
         <v>2018-06-08</v>
@@ -5322,24 +5325,24 @@
         <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E86" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F86" t="s">
         <v>20</v>
       </c>
       <c r="G86" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J86" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B87" s="2" t="d">
         <v>2018-06-04</v>
@@ -5348,24 +5351,24 @@
         <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E87" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F87" t="s">
         <v>20</v>
       </c>
       <c r="G87" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J87" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B88" s="2" t="d">
         <v>2018-06-12</v>
@@ -5374,24 +5377,24 @@
         <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E88" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F88" t="s">
         <v>20</v>
       </c>
       <c r="G88" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J88" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B89" s="2" t="d">
         <v>2018-06-14</v>
@@ -5400,16 +5403,16 @@
         <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E89" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F89" t="s">
         <v>20</v>
       </c>
       <c r="G89" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J89" t="s">
         <v>13</v>
@@ -5417,7 +5420,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B90" s="2" t="d">
         <v>2018-05-14</v>
@@ -5426,7 +5429,7 @@
         <v>5</v>
       </c>
       <c r="D90" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E90" t="s">
         <v>15</v>
@@ -5435,15 +5438,15 @@
         <v>20</v>
       </c>
       <c r="G90" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J90" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B91" s="2" t="d">
         <v>2018-05-17</v>
@@ -5452,7 +5455,7 @@
         <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E91" t="s">
         <v>15</v>
@@ -5461,15 +5464,15 @@
         <v>20</v>
       </c>
       <c r="G91" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J91" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B92" s="2" t="d">
         <v>2018-05-14</v>
@@ -5478,16 +5481,16 @@
         <v>5</v>
       </c>
       <c r="D92" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E92" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F92" t="s">
         <v>20</v>
       </c>
       <c r="G92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J92" t="s">
         <v>13</v>
@@ -5495,7 +5498,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B93" s="2" t="d">
         <v>2018-05-17</v>
@@ -5504,24 +5507,24 @@
         <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E93" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F93" t="s">
         <v>20</v>
       </c>
       <c r="G93" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J93" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B94" s="2" t="d">
         <v>2018-05-17</v>
@@ -5530,24 +5533,24 @@
         <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E94" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F94" t="s">
         <v>20</v>
       </c>
       <c r="G94" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J94" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B95" s="2" t="d">
         <v>2018-05-21</v>
@@ -5556,24 +5559,24 @@
         <v>5</v>
       </c>
       <c r="D95" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E95" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F95" t="s">
         <v>20</v>
       </c>
       <c r="G95" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J95" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B96" s="2" t="d">
         <v>2018-05-21</v>
@@ -5582,24 +5585,24 @@
         <v>5</v>
       </c>
       <c r="D96" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E96" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F96" t="s">
         <v>20</v>
       </c>
       <c r="G96" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J96" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B97" s="2" t="d">
         <v>2018-05-15</v>
@@ -5608,24 +5611,24 @@
         <v>16</v>
       </c>
       <c r="D97" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E97" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J97" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B98" s="2" t="d">
         <v>2018-05-25</v>
@@ -5634,24 +5637,24 @@
         <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E98" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
       </c>
       <c r="G98" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J98" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B99" s="2" t="d">
         <v>2018-06-06</v>
@@ -5660,24 +5663,24 @@
         <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E99" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F99" t="s">
         <v>20</v>
       </c>
       <c r="G99" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J99" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B100" s="2" t="d">
         <v>2018-05-17</v>
@@ -5686,24 +5689,24 @@
         <v>16</v>
       </c>
       <c r="D100" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E100" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F100" t="s">
         <v>20</v>
       </c>
       <c r="G100" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J100" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B101" s="2" t="d">
         <v>2018-05-14</v>
@@ -5712,24 +5715,24 @@
         <v>5</v>
       </c>
       <c r="D101" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E101" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F101" t="s">
         <v>20</v>
       </c>
       <c r="G101" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J101" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B102" s="2" t="d">
         <v>2018-05-21</v>
@@ -5738,16 +5741,16 @@
         <v>16</v>
       </c>
       <c r="D102" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E102" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F102" t="s">
         <v>20</v>
       </c>
       <c r="G102" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J102" t="s">
         <v>13</v>
@@ -5755,7 +5758,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B103" s="2" t="d">
         <v>2018-05-25</v>
@@ -5764,16 +5767,16 @@
         <v>16</v>
       </c>
       <c r="D103" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E103" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F103" t="s">
         <v>20</v>
       </c>
       <c r="G103" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J103" t="s">
         <v>13</v>
@@ -5781,7 +5784,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B104" s="2" t="d">
         <v>2018-06-15</v>
@@ -5790,24 +5793,24 @@
         <v>16</v>
       </c>
       <c r="D104" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E104" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F104" t="s">
         <v>20</v>
       </c>
       <c r="G104" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J104" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B105" s="2" t="d">
         <v>2018-06-20</v>
@@ -5816,24 +5819,24 @@
         <v>16</v>
       </c>
       <c r="D105" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E105" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F105" t="s">
         <v>20</v>
       </c>
       <c r="G105" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J105" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B106" s="2" t="d">
         <v>2018-05-24</v>
@@ -5842,16 +5845,16 @@
         <v>5</v>
       </c>
       <c r="D106" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F106" t="s">
         <v>20</v>
       </c>
       <c r="G106" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J106" t="s">
         <v>13</v>
@@ -5859,7 +5862,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B107" s="2" t="d">
         <v>2018-06-07</v>
@@ -5868,16 +5871,16 @@
         <v>5</v>
       </c>
       <c r="D107" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F107" t="s">
         <v>20</v>
       </c>
       <c r="G107" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J107" t="s">
         <v>13</v>
@@ -5885,7 +5888,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B108" s="2" t="d">
         <v>2018-06-12</v>
@@ -5894,16 +5897,16 @@
         <v>5</v>
       </c>
       <c r="D108" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F108" t="s">
         <v>20</v>
       </c>
       <c r="G108" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J108" t="s">
         <v>13</v>
@@ -5911,7 +5914,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B109" s="2" t="d">
         <v>2018-05-24</v>
@@ -5920,16 +5923,16 @@
         <v>5</v>
       </c>
       <c r="D109" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F109" t="s">
         <v>20</v>
       </c>
       <c r="G109" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J109" t="s">
         <v>13</v>
@@ -5937,7 +5940,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B110" s="2" t="d">
         <v>2018-06-07</v>
@@ -5946,16 +5949,16 @@
         <v>5</v>
       </c>
       <c r="D110" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F110" t="s">
         <v>20</v>
       </c>
       <c r="G110" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J110" t="s">
         <v>13</v>
@@ -5963,7 +5966,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B111" s="2" t="d">
         <v>2018-06-12</v>
@@ -5972,16 +5975,16 @@
         <v>5</v>
       </c>
       <c r="D111" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F111" t="s">
         <v>20</v>
       </c>
       <c r="G111" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J111" t="s">
         <v>13</v>
@@ -5989,7 +5992,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B112" s="2" t="d">
         <v>2018-06-04</v>
@@ -5998,16 +6001,16 @@
         <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E112" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F112" t="s">
         <v>20</v>
       </c>
       <c r="G112" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J112" t="s">
         <v>14</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B113" s="2" t="d">
         <v>2018-06-04</v>
@@ -6024,16 +6027,16 @@
         <v>16</v>
       </c>
       <c r="D113" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E113" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F113" t="s">
         <v>20</v>
       </c>
       <c r="G113" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J113" t="s">
         <v>14</v>
@@ -6041,7 +6044,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B114" s="2" t="d">
         <v>2018-06-06</v>
@@ -6050,16 +6053,16 @@
         <v>16</v>
       </c>
       <c r="D114" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F114" t="s">
         <v>20</v>
       </c>
       <c r="G114" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J114" t="s">
         <v>13</v>
@@ -6067,7 +6070,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B115" s="2" t="d">
         <v>2018-05-21</v>
@@ -6076,24 +6079,24 @@
         <v>16</v>
       </c>
       <c r="D115" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E115" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F115" t="s">
         <v>20</v>
       </c>
       <c r="G115" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J115" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B116" s="2" t="d">
         <v>2018-06-06</v>
@@ -6102,24 +6105,24 @@
         <v>16</v>
       </c>
       <c r="D116" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E116" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F116" t="s">
         <v>20</v>
       </c>
       <c r="G116" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J116" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B117" s="2" t="d">
         <v>2018-05-16</v>
@@ -6128,24 +6131,24 @@
         <v>5</v>
       </c>
       <c r="D117" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E117" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F117" t="s">
         <v>20</v>
       </c>
       <c r="G117" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J117" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B118" s="2" t="d">
         <v>2018-05-21</v>
@@ -6154,24 +6157,24 @@
         <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E118" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F118" t="s">
         <v>20</v>
       </c>
       <c r="G118" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J118" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B119" s="2" t="d">
         <v>2018-06-06</v>
@@ -6180,24 +6183,24 @@
         <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E119" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F119" t="s">
         <v>20</v>
       </c>
       <c r="G119" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J119" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B120" s="2" t="d">
         <v>2018-05-16</v>
@@ -6206,19 +6209,29 @@
         <v>5</v>
       </c>
       <c r="D120" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E120" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F120" t="s">
         <v>20</v>
       </c>
       <c r="G120" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J120" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E121" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E122" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/sample-data/exams ocr 2018.xlsx
+++ b/sample-data/exams ocr 2018.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr dateCompatibility="0" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alic/workspace/examdb/sample-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9F20207D-A20D-D643-9828-04B5F1D9B05A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A47D4D31-CA75-A04F-B2EB-CAF9104CC1A6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="OCR 2018" sheetId="1" r:id="rId1"/>
+    <sheet name="exams ocr 2018" sheetId="1" r:id="rId1"/>
     <sheet name="References" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OCR 2018'!$A$1:$L$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'exams ocr 2018'!$A$1:$L$113</definedName>
   </definedNames>
   <calcPr calcId="140000"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="865" uniqueCount="283">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1355" uniqueCount="438">
   <si>
     <t>Date</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
     <t>1h 30m</t>
   </si>
   <si>
@@ -874,20 +871,489 @@
     <t>Listening and appraising</t>
   </si>
   <si>
-    <t>1h 45,</t>
-  </si>
-  <si>
-    <t>1j</t>
-  </si>
-  <si>
-    <t>1j 45m</t>
+    <t>Physical factors affecting performance</t>
+  </si>
+  <si>
+    <t>Socio-cultural issues and sports psychology</t>
+  </si>
+  <si>
+    <t>P1-P4 and P9 Foundation</t>
+  </si>
+  <si>
+    <t>P5-P8 and P9 Foundation</t>
+  </si>
+  <si>
+    <t>P1-P4 and P9 Higher</t>
+  </si>
+  <si>
+    <t>P5-P8 and P9 Highe</t>
+  </si>
+  <si>
+    <t>Breadth in physics (Foundation)</t>
+  </si>
+  <si>
+    <t>Depth in physics (Foundation)</t>
+  </si>
+  <si>
+    <t>Breadth in physics (Higher)</t>
+  </si>
+  <si>
+    <t>Depth in physics (Higher)</t>
+  </si>
+  <si>
+    <t>Studies and Applications in Psychology 1</t>
+  </si>
+  <si>
+    <t>Studies and Applications in Psychology 2</t>
+  </si>
+  <si>
+    <t>Research in Psychology</t>
+  </si>
+  <si>
+    <t>Beliefs and teaching &amp; Practices: Christianity</t>
+  </si>
+  <si>
+    <t>Beliefs and teaching &amp; Practices: Islam</t>
+  </si>
+  <si>
+    <t>Beliefs and teaching &amp; Practices: Judaism</t>
+  </si>
+  <si>
+    <t>Beliefs and teaching &amp; Practices: Buddhism</t>
+  </si>
+  <si>
+    <t>Beliefs and teaching &amp; Practices: Hinduism</t>
+  </si>
+  <si>
+    <t>Religion, philosophy and ethics in the modern world: Christianity</t>
+  </si>
+  <si>
+    <t>Religion, philosophy and ethics in the modern world: Islam</t>
+  </si>
+  <si>
+    <t>Religion, philosophy and ethics in the modern world: Judaism</t>
+  </si>
+  <si>
+    <t>Religion, philosophy and ethics in the modern world: Buddhism</t>
+  </si>
+  <si>
+    <t>Religion, philosophy and ethics in the modern world: Hinduism</t>
+  </si>
+  <si>
+    <t>Religion, philosophy and ethics in the modern world</t>
+  </si>
+  <si>
+    <t>J125/1</t>
+  </si>
+  <si>
+    <t>Paper 1 (Biology) (Foundation)</t>
+  </si>
+  <si>
+    <t>Paper 2 (Biology) (Foundation)</t>
+  </si>
+  <si>
+    <t>Paper 3 (Chemistry) (Foundation)</t>
+  </si>
+  <si>
+    <t>Paper 4 (Chemistry) (Foundation</t>
+  </si>
+  <si>
+    <t>Paper 5 (Physics) (Foundation)</t>
+  </si>
+  <si>
+    <t>Paper 6 (Physics) (Foundation)</t>
+  </si>
+  <si>
+    <t>Paper 7 (Biology) (Higher)</t>
+  </si>
+  <si>
+    <t>Paper 8 (Biology) (Higher)</t>
+  </si>
+  <si>
+    <t>Paper 9 (Chemistry) (Higher)</t>
+  </si>
+  <si>
+    <t>Paper 10 (Chemistry) (Higher)</t>
+  </si>
+  <si>
+    <t>Paper 11 (Physics) (Higher)</t>
+  </si>
+  <si>
+    <t>Paper 12 (Physics) (Higher)</t>
+  </si>
+  <si>
+    <t>Biology Foundation</t>
+  </si>
+  <si>
+    <t>Chemistry Foundation</t>
+  </si>
+  <si>
+    <t>Physics Foundation</t>
+  </si>
+  <si>
+    <t>Combined Science Foundation</t>
+  </si>
+  <si>
+    <t>Biology Higher</t>
+  </si>
+  <si>
+    <t>Chemistry Higher</t>
+  </si>
+  <si>
+    <t>Physics Higher</t>
+  </si>
+  <si>
+    <t>Combined Science Higher</t>
+  </si>
+  <si>
+    <t>Combined Science B</t>
+  </si>
+  <si>
+    <t>Combined Science A</t>
+  </si>
+  <si>
+    <t>Religious Studies</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>Physics A</t>
+  </si>
+  <si>
+    <t>Physics B</t>
+  </si>
+  <si>
+    <t>J587/1</t>
+  </si>
+  <si>
+    <t>J587/2</t>
+  </si>
+  <si>
+    <t>J249/2</t>
+  </si>
+  <si>
+    <t>J249/1</t>
+  </si>
+  <si>
+    <t>J249/3</t>
+  </si>
+  <si>
+    <t>J249/4</t>
+  </si>
+  <si>
+    <t>J259/1</t>
+  </si>
+  <si>
+    <t>J259/2</t>
+  </si>
+  <si>
+    <t>J259/3</t>
+  </si>
+  <si>
+    <t>J259/4</t>
+  </si>
+  <si>
+    <t>A831</t>
+  </si>
+  <si>
+    <t>A833</t>
+  </si>
+  <si>
+    <t>A834</t>
+  </si>
+  <si>
+    <t>B541</t>
+  </si>
+  <si>
+    <t>B542</t>
+  </si>
+  <si>
+    <t>B543</t>
+  </si>
+  <si>
+    <t>J625/1</t>
+  </si>
+  <si>
+    <t>J625/2</t>
+  </si>
+  <si>
+    <t>J625/3</t>
+  </si>
+  <si>
+    <t>J625/4</t>
+  </si>
+  <si>
+    <t>J625/5</t>
+  </si>
+  <si>
+    <t>J625/6</t>
+  </si>
+  <si>
+    <t>J625/7</t>
+  </si>
+  <si>
+    <t>J625/8</t>
+  </si>
+  <si>
+    <t>J625/9</t>
+  </si>
+  <si>
+    <t>J625/10</t>
+  </si>
+  <si>
+    <t>J250/2</t>
+  </si>
+  <si>
+    <t>J250/3</t>
+  </si>
+  <si>
+    <t>J250/4</t>
+  </si>
+  <si>
+    <t>J250/5</t>
+  </si>
+  <si>
+    <t>J250/6</t>
+  </si>
+  <si>
+    <t>J250/7</t>
+  </si>
+  <si>
+    <t>J250/8</t>
+  </si>
+  <si>
+    <t>J250/9</t>
+  </si>
+  <si>
+    <t>J250/10</t>
+  </si>
+  <si>
+    <t>J250/11</t>
+  </si>
+  <si>
+    <t>J250/12</t>
+  </si>
+  <si>
+    <t>J260/1</t>
+  </si>
+  <si>
+    <t>J260/2</t>
+  </si>
+  <si>
+    <t>J260/3</t>
+  </si>
+  <si>
+    <t>J260/4</t>
+  </si>
+  <si>
+    <t>J260/5</t>
+  </si>
+  <si>
+    <t>J260/6</t>
+  </si>
+  <si>
+    <t>J260/7</t>
+  </si>
+  <si>
+    <t>J260/8</t>
+  </si>
+  <si>
+    <t>1h 10m</t>
+  </si>
+  <si>
+    <t>Sociology Basics</t>
+  </si>
+  <si>
+    <t>Socialisation, Culture and Identity</t>
+  </si>
+  <si>
+    <t>Applying Sociological Research Techniques</t>
+  </si>
+  <si>
+    <t>Sociology</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>Level 2 Award</t>
+  </si>
+  <si>
+    <t>A843</t>
+  </si>
+  <si>
+    <t>A844</t>
+  </si>
+  <si>
+    <t>A841</t>
+  </si>
+  <si>
+    <t>B671</t>
+  </si>
+  <si>
+    <t>B672</t>
+  </si>
+  <si>
+    <t>B673</t>
+  </si>
+  <si>
+    <t>B901</t>
+  </si>
+  <si>
+    <t>B902</t>
+  </si>
+  <si>
+    <t>Thinking and Reasoning Skills</t>
+  </si>
+  <si>
+    <t>Thinking and Reasoning Skills Case Study</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Introduction to business</t>
+  </si>
+  <si>
+    <t>Health and well-being for child development</t>
+  </si>
+  <si>
+    <t>Pre-production skills</t>
+  </si>
+  <si>
+    <t>Design briefs, design specifications and user requirements</t>
+  </si>
+  <si>
+    <t>Engineering materials, processes and production</t>
+  </si>
+  <si>
+    <t>Enterprise and marketing concepts</t>
+  </si>
+  <si>
+    <t>Essential values of care for use with individuals in care settings</t>
+  </si>
+  <si>
+    <t>Understanding computer systems</t>
+  </si>
+  <si>
+    <t>Understanding tools, techniques, methods and processes for
+technological solutions</t>
+  </si>
+  <si>
+    <t>Engineering principles</t>
+  </si>
+  <si>
+    <t>How scientific ideas have developed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How scientific data is used</t>
+  </si>
+  <si>
+    <t>Reducing the risk of sports injuries</t>
+  </si>
+  <si>
+    <t>Electronic principles</t>
+  </si>
+  <si>
+    <t>Contemporary issues in sport</t>
+  </si>
+  <si>
+    <t>Cambridge Nationals</t>
+  </si>
+  <si>
+    <t>Child Development</t>
+  </si>
+  <si>
+    <t>Creative iMedia</t>
+  </si>
+  <si>
+    <t>Engineering Design</t>
+  </si>
+  <si>
+    <t>Engineering Manufacture</t>
+  </si>
+  <si>
+    <t>Enterprise and Marketing</t>
+  </si>
+  <si>
+    <t>Health and Social Care</t>
+  </si>
+  <si>
+    <t>Information Technologies</t>
+  </si>
+  <si>
+    <t>Principles in Engineering and Engineering Business</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Science in the Workplace</t>
+  </si>
+  <si>
+    <t>Sport Science</t>
+  </si>
+  <si>
+    <t>Sport Studies</t>
+  </si>
+  <si>
+    <t>Systems Control in Engineering</t>
+  </si>
+  <si>
+    <t>R061</t>
+  </si>
+  <si>
+    <t>R018</t>
+  </si>
+  <si>
+    <t>R081</t>
+  </si>
+  <si>
+    <t>R105</t>
+  </si>
+  <si>
+    <t>R109</t>
+  </si>
+  <si>
+    <t>R064</t>
+  </si>
+  <si>
+    <t>R021</t>
+  </si>
+  <si>
+    <t>R001</t>
+  </si>
+  <si>
+    <t>R012</t>
+  </si>
+  <si>
+    <t>R101</t>
+  </si>
+  <si>
+    <t>R072/1, 2</t>
+  </si>
+  <si>
+    <t>R075/1, 2</t>
+  </si>
+  <si>
+    <t>R041</t>
+  </si>
+  <si>
+    <t>R051</t>
+  </si>
+  <si>
+    <t>R113</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -919,6 +1385,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1811,11 +2285,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="283"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="872">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3026,11 +3504,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L122"/>
+  <dimension ref="A1:L190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E122" sqref="E122"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3041,7 +3519,7 @@
     <col min="5" max="5" width="33.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="65.6640625" customWidth="1"/>
-    <col min="8" max="8" width="3.1640625" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
     <col min="9" max="9" width="6" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.33203125" customWidth="1"/>
@@ -3058,7 +3536,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>368</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
@@ -3087,7 +3565,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="d">
         <v>2018-06-06</v>
@@ -3096,102 +3574,102 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="d">
         <v>2018-06-13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="d">
         <v>2018-06-18</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="d">
         <v>2018-06-14</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="d">
         <v>2018-06-18</v>
@@ -3200,50 +3678,50 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
         <v>44</v>
-      </c>
-      <c r="J6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="d">
         <v>2018-05-15</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="d">
         <v>2018-06-11</v>
@@ -3252,50 +3730,50 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="d">
         <v>2018-06-15</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="d">
         <v>2018-06-11</v>
@@ -3304,50 +3782,50 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2" t="d">
         <v>2018-05-15</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="d">
         <v>2018-06-11</v>
@@ -3356,50 +3834,50 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="d">
         <v>2018-05-15</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="d">
         <v>2018-06-11</v>
@@ -3408,24 +3886,24 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="d">
         <v>2018-05-23</v>
@@ -3434,76 +3912,76 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="d">
         <v>2018-06-07</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="d">
         <v>2018-06-20</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="d">
         <v>2018-06-18</v>
@@ -3512,24 +3990,24 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="d">
         <v>2018-05-23</v>
@@ -3538,50 +4016,50 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="d">
         <v>2018-06-06</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="d">
         <v>2018-05-17</v>
@@ -3590,24 +4068,24 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="d">
         <v>2018-06-13</v>
@@ -3616,24 +4094,24 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="d">
         <v>2018-05-17</v>
@@ -3642,24 +4120,24 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="d">
         <v>2018-06-13</v>
@@ -3668,24 +4146,24 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="d">
         <v>2018-05-17</v>
@@ -3694,24 +4172,24 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="d">
         <v>2018-06-13</v>
@@ -3720,24 +4198,24 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="d">
         <v>2018-05-17</v>
@@ -3746,24 +4224,24 @@
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="d">
         <v>2018-06-13</v>
@@ -3772,50 +4250,50 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="d">
         <v>2018-06-15</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2" t="d">
         <v>2018-06-18</v>
@@ -3824,163 +4302,163 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="d">
         <v>2018-06-22</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="d">
         <v>2018-06-04</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="d">
         <v>2018-06-07</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2" t="d">
         <v>2018-06-14</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="2" t="d">
         <v>2018-05-18</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="2" t="d">
         <v>2018-05-23</v>
@@ -3989,24 +4467,24 @@
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="2" t="d">
         <v>2018-05-23</v>
@@ -4015,76 +4493,76 @@
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2" t="d">
         <v>2018-06-06</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="2" t="d">
         <v>2018-06-06</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="2" t="d">
         <v>2018-06-14</v>
@@ -4093,24 +4571,24 @@
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="2" t="d">
         <v>2018-05-14</v>
@@ -4119,50 +4597,50 @@
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="2" t="d">
         <v>2018-05-17</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B43" s="2" t="d">
         <v>2018-06-22</v>
@@ -4171,53 +4649,53 @@
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B44" s="2" t="d">
         <v>2018-05-25</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45" s="2" t="d">
         <v>2018-06-19</v>
@@ -4226,180 +4704,180 @@
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B46" s="2" t="d">
         <v>2018-06-07</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B47" s="2" t="d">
         <v>2018-06-14</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B48" s="2" t="d">
         <v>2018-06-25</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B49" s="2" t="d">
         <v>2018-05-18</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B50" s="2" t="d">
         <v>2018-05-21</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B51" s="2" t="d">
         <v>2018-06-06</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B52" s="2" t="d">
         <v>2018-05-16</v>
@@ -4408,82 +4886,82 @@
         <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B53" s="2" t="d">
         <v>2018-05-21</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H53" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B54" s="2" t="d">
         <v>2018-06-06</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B55" s="2" t="d">
         <v>2018-05-16</v>
@@ -4492,163 +4970,163 @@
         <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B56" s="2" t="d">
         <v>2018-06-04</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E56" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B57" s="2" t="d">
         <v>2018-06-04</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G57" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B58" s="2" t="d">
         <v>2018-06-06</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E58" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B59" s="2" t="d">
         <v>2018-05-21</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B60" s="2" t="d">
         <v>2018-06-04</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E60" t="s">
+        <v>174</v>
+      </c>
+      <c r="F60" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" t="s">
+        <v>190</v>
+      </c>
+      <c r="H60" t="s">
         <v>175</v>
       </c>
-      <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="s">
-        <v>191</v>
-      </c>
-      <c r="H60" t="s">
-        <v>176</v>
-      </c>
       <c r="J60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B61" s="2" t="d">
         <v>2018-06-05</v>
@@ -4657,24 +5135,24 @@
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J61" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B62" s="2" t="d">
         <v>2018-06-08</v>
@@ -4683,24 +5161,24 @@
         <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G62" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J62" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B63" s="2" t="d">
         <v>2018-05-22</v>
@@ -4709,24 +5187,24 @@
         <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J63" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B64" s="2" t="d">
         <v>2018-05-25</v>
@@ -4735,24 +5213,24 @@
         <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G64" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J64" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B65" s="2" t="d">
         <v>2018-06-11</v>
@@ -4761,27 +5239,27 @@
         <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E65" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B66" s="2" t="d">
         <v>2018-06-13</v>
@@ -4790,27 +5268,27 @@
         <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B67" s="2" t="d">
         <v>2018-06-15</v>
@@ -4819,261 +5297,261 @@
         <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E67" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B68" s="2" t="d">
         <v>2018-06-14</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E68" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B69" s="2" t="d">
         <v>2018-05-22</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G69" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B70" s="2" t="d">
         <v>2018-06-05</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E70" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B71" s="2" t="d">
         <v>2018-06-11</v>
       </c>
       <c r="C71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G71" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B72" s="2" t="d">
         <v>2018-05-22</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E72" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F72" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" t="s">
+        <v>203</v>
+      </c>
+      <c r="J72" t="s">
         <v>20</v>
-      </c>
-      <c r="G72" t="s">
-        <v>204</v>
-      </c>
-      <c r="J72" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B73" s="2" t="d">
         <v>2018-06-05</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E73" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F73" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" t="s">
+        <v>204</v>
+      </c>
+      <c r="J73" t="s">
         <v>20</v>
-      </c>
-      <c r="G73" t="s">
-        <v>205</v>
-      </c>
-      <c r="J73" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B74" s="2" t="d">
         <v>2018-06-11</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E74" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B75" s="2" t="d">
         <v>2018-05-21</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E75" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G75" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J75" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B76" s="2" t="d">
         <v>2018-06-06</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G76" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J76" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B77" s="2" t="d">
         <v>2018-05-16</v>
@@ -5082,82 +5560,82 @@
         <v>5</v>
       </c>
       <c r="D77" t="s">
+        <v>166</v>
+      </c>
+      <c r="E77" t="s">
         <v>167</v>
       </c>
-      <c r="E77" t="s">
-        <v>168</v>
-      </c>
       <c r="F77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G77" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B78" s="2" t="d">
         <v>2018-05-21</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H78" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J78" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B79" s="2" t="d">
         <v>2018-06-06</v>
       </c>
       <c r="C79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E79" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G79" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J79" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B80" s="2" t="d">
         <v>2018-05-16</v>
@@ -5166,79 +5644,79 @@
         <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E80" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G80" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H80" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B81" s="2" t="d">
         <v>2018-06-13</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B82" s="2" t="d">
         <v>2018-06-19</v>
       </c>
       <c r="C82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G82" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J82" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B83" s="2" t="d">
         <v>2018-06-04</v>
@@ -5247,102 +5725,102 @@
         <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E83" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G83" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B84" s="2" t="d">
         <v>2018-06-08</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E84" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G84" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B85" s="2" t="d">
         <v>2018-06-12</v>
       </c>
       <c r="C85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E85" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F85" t="s">
+        <v>19</v>
+      </c>
+      <c r="G85" t="s">
+        <v>255</v>
+      </c>
+      <c r="J85" t="s">
         <v>20</v>
-      </c>
-      <c r="G85" t="s">
-        <v>256</v>
-      </c>
-      <c r="J85" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B86" s="2" t="d">
         <v>2018-06-08</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E86" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G86" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J86" t="s">
-        <v>280</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B87" s="2" t="d">
         <v>2018-06-04</v>
@@ -5351,50 +5829,50 @@
         <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E87" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G87" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J87" t="s">
-        <v>281</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B88" s="2" t="d">
         <v>2018-06-12</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E88" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G88" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J88" t="s">
-        <v>282</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B89" s="2" t="d">
         <v>2018-06-14</v>
@@ -5403,24 +5881,24 @@
         <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E89" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F89" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G89" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B90" s="2" t="d">
         <v>2018-05-14</v>
@@ -5429,50 +5907,50 @@
         <v>5</v>
       </c>
       <c r="D90" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G90" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J90" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B91" s="2" t="d">
         <v>2018-05-17</v>
       </c>
       <c r="C91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G91" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B92" s="2" t="d">
         <v>2018-05-14</v>
@@ -5481,76 +5959,76 @@
         <v>5</v>
       </c>
       <c r="D92" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E92" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B93" s="2" t="d">
         <v>2018-05-17</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B94" s="2" t="d">
         <v>2018-05-17</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E94" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G94" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B95" s="2" t="d">
         <v>2018-05-21</v>
@@ -5559,24 +6037,24 @@
         <v>5</v>
       </c>
       <c r="D95" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E95" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G95" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B96" s="2" t="d">
         <v>2018-05-21</v>
@@ -5585,76 +6063,76 @@
         <v>5</v>
       </c>
       <c r="D96" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E96" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G96" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B97" s="2" t="d">
         <v>2018-05-15</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E97" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J97" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B98" s="2" t="d">
         <v>2018-05-25</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E98" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G98" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J98" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B99" s="2" t="d">
         <v>2018-06-06</v>
@@ -5663,50 +6141,50 @@
         <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E99" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G99" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J99" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B100" s="2" t="d">
         <v>2018-05-17</v>
       </c>
       <c r="C100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E100" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G100" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J100" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B101" s="2" t="d">
         <v>2018-05-14</v>
@@ -5715,128 +6193,128 @@
         <v>5</v>
       </c>
       <c r="D101" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E101" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G101" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J101" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B102" s="2" t="d">
         <v>2018-05-21</v>
       </c>
       <c r="C102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F102" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G102" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B103" s="2" t="d">
         <v>2018-05-25</v>
       </c>
       <c r="C103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E103" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G103" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B104" s="2" t="d">
         <v>2018-06-15</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D104" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E104" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F104" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G104" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J104" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B105" s="2" t="d">
         <v>2018-06-20</v>
       </c>
       <c r="C105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E105" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G105" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J105" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B106" s="2" t="d">
         <v>2018-05-24</v>
@@ -5845,24 +6323,24 @@
         <v>5</v>
       </c>
       <c r="D106" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G106" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B107" s="2" t="d">
         <v>2018-06-07</v>
@@ -5871,24 +6349,24 @@
         <v>5</v>
       </c>
       <c r="D107" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G107" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B108" s="2" t="d">
         <v>2018-06-12</v>
@@ -5897,24 +6375,24 @@
         <v>5</v>
       </c>
       <c r="D108" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G108" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B109" s="2" t="d">
         <v>2018-05-24</v>
@@ -5923,24 +6401,24 @@
         <v>5</v>
       </c>
       <c r="D109" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G109" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B110" s="2" t="d">
         <v>2018-06-07</v>
@@ -5949,24 +6427,24 @@
         <v>5</v>
       </c>
       <c r="D110" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G110" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B111" s="2" t="d">
         <v>2018-06-12</v>
@@ -5975,154 +6453,154 @@
         <v>5</v>
       </c>
       <c r="D111" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G111" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B112" s="2" t="d">
         <v>2018-06-04</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E112" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F112" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G112" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B113" s="2" t="d">
         <v>2018-06-04</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E113" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G113" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B114" s="2" t="d">
         <v>2018-06-06</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D114" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G114" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B115" s="2" t="d">
         <v>2018-05-21</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E115" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G115" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J115" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B116" s="2" t="d">
         <v>2018-06-06</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D116" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E116" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F116" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G116" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J116" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B117" s="2" t="d">
         <v>2018-05-16</v>
@@ -6131,76 +6609,76 @@
         <v>5</v>
       </c>
       <c r="D117" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E117" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F117" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G117" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J117" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B118" s="2" t="d">
         <v>2018-05-21</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D118" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E118" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G118" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J118" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B119" s="2" t="d">
         <v>2018-06-06</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E119" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G119" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J119" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B120" s="2" t="d">
         <v>2018-05-16</v>
@@ -6209,29 +6687,1845 @@
         <v>5</v>
       </c>
       <c r="D120" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E120" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F120" t="s">
+        <v>19</v>
+      </c>
+      <c r="G120" t="s">
+        <v>183</v>
+      </c>
+      <c r="J120" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>32</v>
+      </c>
+      <c r="B121" s="2" t="d">
+        <v>2018-05-16</v>
+      </c>
+      <c r="C121" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" t="s">
+        <v>331</v>
+      </c>
+      <c r="E121" t="s">
+        <v>21</v>
+      </c>
+      <c r="F121" t="s">
+        <v>19</v>
+      </c>
+      <c r="G121" t="s">
+        <v>279</v>
+      </c>
+      <c r="J121" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>32</v>
+      </c>
+      <c r="B122" s="2" t="d">
+        <v>2018-05-18</v>
+      </c>
+      <c r="C122" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" t="s">
+        <v>332</v>
+      </c>
+      <c r="E122" t="s">
+        <v>21</v>
+      </c>
+      <c r="F122" t="s">
+        <v>19</v>
+      </c>
+      <c r="G122" t="s">
+        <v>280</v>
+      </c>
+      <c r="J122" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>32</v>
+      </c>
+      <c r="B123" s="2" t="d">
+        <v>2018-05-23</v>
+      </c>
+      <c r="C123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" t="s">
+        <v>334</v>
+      </c>
+      <c r="E123" t="s">
+        <v>329</v>
+      </c>
+      <c r="F123" t="s">
+        <v>19</v>
+      </c>
+      <c r="G123" t="s">
+        <v>281</v>
+      </c>
+      <c r="J123" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>32</v>
+      </c>
+      <c r="B124" s="2" t="d">
+        <v>2018-05-15</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" t="s">
+        <v>333</v>
+      </c>
+      <c r="E124" t="s">
+        <v>329</v>
+      </c>
+      <c r="F124" t="s">
+        <v>19</v>
+      </c>
+      <c r="G124" t="s">
+        <v>282</v>
+      </c>
+      <c r="J124" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>32</v>
+      </c>
+      <c r="B125" s="2" t="d">
+        <v>2018-05-23</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" t="s">
+        <v>335</v>
+      </c>
+      <c r="E125" t="s">
+        <v>329</v>
+      </c>
+      <c r="F125" t="s">
+        <v>19</v>
+      </c>
+      <c r="G125" t="s">
+        <v>283</v>
+      </c>
+      <c r="J125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>32</v>
+      </c>
+      <c r="B126" s="2" t="d">
+        <v>2018-05-15</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" t="s">
+        <v>336</v>
+      </c>
+      <c r="E126" t="s">
+        <v>329</v>
+      </c>
+      <c r="F126" t="s">
+        <v>19</v>
+      </c>
+      <c r="G126" t="s">
+        <v>284</v>
+      </c>
+      <c r="J126" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>32</v>
+      </c>
+      <c r="B127" s="2" t="d">
+        <v>2018-05-23</v>
+      </c>
+      <c r="C127" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" t="s">
+        <v>337</v>
+      </c>
+      <c r="E127" t="s">
+        <v>330</v>
+      </c>
+      <c r="F127" t="s">
+        <v>19</v>
+      </c>
+      <c r="G127" t="s">
+        <v>285</v>
+      </c>
+      <c r="J127" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>32</v>
+      </c>
+      <c r="B128" s="2" t="d">
+        <v>2018-05-15</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" t="s">
+        <v>338</v>
+      </c>
+      <c r="E128" t="s">
+        <v>330</v>
+      </c>
+      <c r="F128" t="s">
+        <v>19</v>
+      </c>
+      <c r="G128" t="s">
+        <v>286</v>
+      </c>
+      <c r="J128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>32</v>
+      </c>
+      <c r="B129" s="2" t="d">
+        <v>2018-05-23</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" t="s">
+        <v>339</v>
+      </c>
+      <c r="E129" t="s">
+        <v>330</v>
+      </c>
+      <c r="F129" t="s">
+        <v>19</v>
+      </c>
+      <c r="G129" t="s">
+        <v>287</v>
+      </c>
+      <c r="J129" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>32</v>
+      </c>
+      <c r="B130" s="2" t="d">
+        <v>2018-05-15</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" t="s">
+        <v>340</v>
+      </c>
+      <c r="E130" t="s">
+        <v>330</v>
+      </c>
+      <c r="F130" t="s">
+        <v>19</v>
+      </c>
+      <c r="G130" t="s">
+        <v>288</v>
+      </c>
+      <c r="J130" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>32</v>
+      </c>
+      <c r="B131" s="2" t="d">
+        <v>2018-05-21</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" t="s">
+        <v>341</v>
+      </c>
+      <c r="E131" t="s">
+        <v>328</v>
+      </c>
+      <c r="F131" t="s">
+        <v>19</v>
+      </c>
+      <c r="G131" t="s">
+        <v>181</v>
+      </c>
+      <c r="J131" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>32</v>
+      </c>
+      <c r="B132" s="2" t="d">
+        <v>2018-06-06</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" t="s">
+        <v>342</v>
+      </c>
+      <c r="E132" t="s">
+        <v>328</v>
+      </c>
+      <c r="F132" t="s">
+        <v>19</v>
+      </c>
+      <c r="G132" t="s">
+        <v>182</v>
+      </c>
+      <c r="J132" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>32</v>
+      </c>
+      <c r="B133" s="2" t="d">
+        <v>2018-05-16</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133" t="s">
+        <v>343</v>
+      </c>
+      <c r="E133" t="s">
+        <v>328</v>
+      </c>
+      <c r="F133" t="s">
+        <v>19</v>
+      </c>
+      <c r="G133" t="s">
+        <v>183</v>
+      </c>
+      <c r="J133" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>32</v>
+      </c>
+      <c r="B134" s="2" t="d">
+        <v>2018-05-23</v>
+      </c>
+      <c r="C134" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" t="s">
+        <v>344</v>
+      </c>
+      <c r="E134" t="s">
+        <v>327</v>
+      </c>
+      <c r="F134" t="s">
+        <v>19</v>
+      </c>
+      <c r="G134" t="s">
+        <v>289</v>
+      </c>
+      <c r="J134" t="s">
         <v>20</v>
       </c>
-      <c r="G120" t="s">
-        <v>184</v>
-      </c>
-      <c r="J120" t="s">
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>32</v>
+      </c>
+      <c r="B135" s="2" t="d">
+        <v>2018-06-04</v>
+      </c>
+      <c r="C135" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" t="s">
+        <v>345</v>
+      </c>
+      <c r="E135" t="s">
+        <v>327</v>
+      </c>
+      <c r="F135" t="s">
+        <v>19</v>
+      </c>
+      <c r="G135" t="s">
+        <v>290</v>
+      </c>
+      <c r="J135" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>32</v>
+      </c>
+      <c r="B136" s="2" t="d">
+        <v>2018-06-06</v>
+      </c>
+      <c r="C136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" t="s">
+        <v>346</v>
+      </c>
+      <c r="E136" t="s">
+        <v>327</v>
+      </c>
+      <c r="F136" t="s">
+        <v>19</v>
+      </c>
+      <c r="G136" t="s">
+        <v>291</v>
+      </c>
+      <c r="J136" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>32</v>
+      </c>
+      <c r="B137" s="2" t="d">
+        <v>2018-05-14</v>
+      </c>
+      <c r="C137" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" t="s">
+        <v>347</v>
+      </c>
+      <c r="E137" t="s">
+        <v>326</v>
+      </c>
+      <c r="F137" t="s">
+        <v>19</v>
+      </c>
+      <c r="G137" t="s">
+        <v>292</v>
+      </c>
+      <c r="J137" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>32</v>
+      </c>
+      <c r="B138" s="2" t="d">
+        <v>2018-05-14</v>
+      </c>
+      <c r="C138" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" t="s">
+        <v>348</v>
+      </c>
+      <c r="E138" t="s">
+        <v>326</v>
+      </c>
+      <c r="F138" t="s">
+        <v>19</v>
+      </c>
+      <c r="G138" t="s">
+        <v>293</v>
+      </c>
+      <c r="J138" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>32</v>
+      </c>
+      <c r="B139" s="2" t="d">
+        <v>2018-05-14</v>
+      </c>
+      <c r="C139" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" t="s">
+        <v>349</v>
+      </c>
+      <c r="E139" t="s">
+        <v>326</v>
+      </c>
+      <c r="F139" t="s">
+        <v>19</v>
+      </c>
+      <c r="G139" t="s">
+        <v>294</v>
+      </c>
+      <c r="J139" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>32</v>
+      </c>
+      <c r="B140" s="2" t="d">
+        <v>2018-05-14</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" t="s">
+        <v>350</v>
+      </c>
+      <c r="E140" t="s">
+        <v>326</v>
+      </c>
+      <c r="F140" t="s">
+        <v>19</v>
+      </c>
+      <c r="G140" t="s">
+        <v>295</v>
+      </c>
+      <c r="J140" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>32</v>
+      </c>
+      <c r="B141" s="2" t="d">
+        <v>2018-05-14</v>
+      </c>
+      <c r="C141" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" t="s">
+        <v>351</v>
+      </c>
+      <c r="E141" t="s">
+        <v>326</v>
+      </c>
+      <c r="F141" t="s">
+        <v>19</v>
+      </c>
+      <c r="G141" t="s">
+        <v>296</v>
+      </c>
+      <c r="J141" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>32</v>
+      </c>
+      <c r="B142" s="2" t="d">
+        <v>2018-05-16</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" t="s">
+        <v>352</v>
+      </c>
+      <c r="E142" t="s">
+        <v>326</v>
+      </c>
+      <c r="F142" t="s">
+        <v>19</v>
+      </c>
+      <c r="G142" t="s">
+        <v>297</v>
+      </c>
+      <c r="J142" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>32</v>
+      </c>
+      <c r="B143" s="2" t="d">
+        <v>2018-05-16</v>
+      </c>
+      <c r="C143" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" t="s">
+        <v>353</v>
+      </c>
+      <c r="E143" t="s">
+        <v>326</v>
+      </c>
+      <c r="F143" t="s">
+        <v>19</v>
+      </c>
+      <c r="G143" t="s">
+        <v>298</v>
+      </c>
+      <c r="J143" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>32</v>
+      </c>
+      <c r="B144" s="2" t="d">
+        <v>2018-05-16</v>
+      </c>
+      <c r="C144" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" t="s">
+        <v>354</v>
+      </c>
+      <c r="E144" t="s">
+        <v>326</v>
+      </c>
+      <c r="F144" t="s">
+        <v>19</v>
+      </c>
+      <c r="G144" t="s">
+        <v>299</v>
+      </c>
+      <c r="J144" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>32</v>
+      </c>
+      <c r="B145" s="2" t="d">
+        <v>2018-05-16</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" t="s">
+        <v>355</v>
+      </c>
+      <c r="E145" t="s">
+        <v>326</v>
+      </c>
+      <c r="F145" t="s">
+        <v>19</v>
+      </c>
+      <c r="G145" t="s">
+        <v>300</v>
+      </c>
+      <c r="J145" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>32</v>
+      </c>
+      <c r="B146" s="2" t="d">
+        <v>2018-05-16</v>
+      </c>
+      <c r="C146" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" t="s">
+        <v>356</v>
+      </c>
+      <c r="E146" t="s">
+        <v>326</v>
+      </c>
+      <c r="F146" t="s">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>301</v>
+      </c>
+      <c r="J146" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>32</v>
+      </c>
+      <c r="B147" s="2" t="d">
+        <v>2018-05-14</v>
+      </c>
+      <c r="C147" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" t="s">
+        <v>303</v>
+      </c>
+      <c r="E147" t="s">
+        <v>326</v>
+      </c>
+      <c r="F147" t="s">
+        <v>19</v>
+      </c>
+      <c r="G147" t="s">
+        <v>302</v>
+      </c>
+      <c r="J147" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>32</v>
+      </c>
+      <c r="B148" s="2" t="d">
+        <v>2018-05-15</v>
+      </c>
+      <c r="C148" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" t="s">
+        <v>303</v>
+      </c>
+      <c r="E148" t="s">
+        <v>325</v>
+      </c>
+      <c r="F148" t="s">
+        <v>19</v>
+      </c>
+      <c r="G148" t="s">
+        <v>304</v>
+      </c>
+      <c r="J148" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>32</v>
+      </c>
+      <c r="B149" s="2" t="d">
+        <v>2018-06-11</v>
+      </c>
+      <c r="C149" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149" t="s">
+        <v>357</v>
+      </c>
+      <c r="E149" t="s">
+        <v>325</v>
+      </c>
+      <c r="F149" t="s">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s">
+        <v>305</v>
+      </c>
+      <c r="J149" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>32</v>
+      </c>
+      <c r="B150" s="2" t="d">
+        <v>2018-05-17</v>
+      </c>
+      <c r="C150" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" t="s">
+        <v>358</v>
+      </c>
+      <c r="E150" t="s">
+        <v>325</v>
+      </c>
+      <c r="F150" t="s">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s">
+        <v>306</v>
+      </c>
+      <c r="J150" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>32</v>
+      </c>
+      <c r="B151" s="2" t="d">
+        <v>2018-06-13</v>
+      </c>
+      <c r="C151" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151" t="s">
+        <v>359</v>
+      </c>
+      <c r="E151" t="s">
+        <v>325</v>
+      </c>
+      <c r="F151" t="s">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s">
+        <v>307</v>
+      </c>
+      <c r="J151" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>32</v>
+      </c>
+      <c r="B152" s="2" t="d">
+        <v>2018-05-23</v>
+      </c>
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" t="s">
+        <v>360</v>
+      </c>
+      <c r="E152" t="s">
+        <v>325</v>
+      </c>
+      <c r="F152" t="s">
+        <v>19</v>
+      </c>
+      <c r="G152" t="s">
+        <v>308</v>
+      </c>
+      <c r="J152" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>32</v>
+      </c>
+      <c r="B153" s="2" t="d">
+        <v>2018-06-15</v>
+      </c>
+      <c r="C153" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" t="s">
+        <v>361</v>
+      </c>
+      <c r="E153" t="s">
+        <v>325</v>
+      </c>
+      <c r="F153" t="s">
+        <v>19</v>
+      </c>
+      <c r="G153" t="s">
+        <v>309</v>
+      </c>
+      <c r="J153" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>32</v>
+      </c>
+      <c r="B154" s="2" t="d">
+        <v>2018-05-15</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" t="s">
+        <v>362</v>
+      </c>
+      <c r="E154" t="s">
+        <v>325</v>
+      </c>
+      <c r="F154" t="s">
+        <v>19</v>
+      </c>
+      <c r="G154" t="s">
+        <v>310</v>
+      </c>
+      <c r="J154" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>32</v>
+      </c>
+      <c r="B155" s="2" t="d">
+        <v>2018-06-11</v>
+      </c>
+      <c r="C155" t="s">
+        <v>5</v>
+      </c>
+      <c r="D155" t="s">
+        <v>363</v>
+      </c>
+      <c r="E155" t="s">
+        <v>325</v>
+      </c>
+      <c r="F155" t="s">
+        <v>19</v>
+      </c>
+      <c r="G155" t="s">
+        <v>311</v>
+      </c>
+      <c r="J155" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>32</v>
+      </c>
+      <c r="B156" s="2" t="d">
+        <v>2018-05-17</v>
+      </c>
+      <c r="C156" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156" t="s">
+        <v>364</v>
+      </c>
+      <c r="E156" t="s">
+        <v>325</v>
+      </c>
+      <c r="F156" t="s">
+        <v>19</v>
+      </c>
+      <c r="G156" t="s">
+        <v>312</v>
+      </c>
+      <c r="J156" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>32</v>
+      </c>
+      <c r="B157" s="2" t="d">
+        <v>2018-06-13</v>
+      </c>
+      <c r="C157" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" t="s">
+        <v>365</v>
+      </c>
+      <c r="E157" t="s">
+        <v>325</v>
+      </c>
+      <c r="F157" t="s">
+        <v>19</v>
+      </c>
+      <c r="G157" t="s">
+        <v>313</v>
+      </c>
+      <c r="J157" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>32</v>
+      </c>
+      <c r="B158" s="2" t="d">
+        <v>2018-05-23</v>
+      </c>
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" t="s">
+        <v>366</v>
+      </c>
+      <c r="E158" t="s">
+        <v>325</v>
+      </c>
+      <c r="F158" t="s">
+        <v>19</v>
+      </c>
+      <c r="G158" t="s">
+        <v>314</v>
+      </c>
+      <c r="J158" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>32</v>
+      </c>
+      <c r="B159" s="2" t="d">
+        <v>2018-05-15</v>
+      </c>
+      <c r="C159" t="s">
+        <v>5</v>
+      </c>
+      <c r="D159" t="s">
+        <v>367</v>
+      </c>
+      <c r="E159" t="s">
+        <v>325</v>
+      </c>
+      <c r="F159" t="s">
+        <v>19</v>
+      </c>
+      <c r="G159" t="s">
+        <v>315</v>
+      </c>
+      <c r="J159" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>32</v>
+      </c>
+      <c r="B160" s="2" t="d">
+        <v>2018-05-15</v>
+      </c>
+      <c r="C160" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" t="s">
+        <v>368</v>
+      </c>
+      <c r="E160" t="s">
+        <v>324</v>
+      </c>
+      <c r="F160" t="s">
+        <v>19</v>
+      </c>
+      <c r="G160" t="s">
+        <v>316</v>
+      </c>
+      <c r="J160" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>32</v>
+      </c>
+      <c r="B161" s="2" t="d">
+        <v>2018-05-17</v>
+      </c>
+      <c r="C161" t="s">
+        <v>5</v>
+      </c>
+      <c r="D161" t="s">
+        <v>369</v>
+      </c>
+      <c r="E161" t="s">
+        <v>324</v>
+      </c>
+      <c r="F161" t="s">
+        <v>19</v>
+      </c>
+      <c r="G161" t="s">
+        <v>317</v>
+      </c>
+      <c r="J161" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>32</v>
+      </c>
+      <c r="B162" s="2" t="d">
+        <v>2018-05-23</v>
+      </c>
+      <c r="C162" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162" t="s">
+        <v>370</v>
+      </c>
+      <c r="E162" t="s">
+        <v>324</v>
+      </c>
+      <c r="F162" t="s">
+        <v>19</v>
+      </c>
+      <c r="G162" t="s">
+        <v>318</v>
+      </c>
+      <c r="J162" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>32</v>
+      </c>
+      <c r="B163" s="2" t="d">
+        <v>2018-06-11</v>
+      </c>
+      <c r="C163" t="s">
+        <v>5</v>
+      </c>
+      <c r="D163" t="s">
+        <v>371</v>
+      </c>
+      <c r="E163" t="s">
+        <v>324</v>
+      </c>
+      <c r="F163" t="s">
+        <v>19</v>
+      </c>
+      <c r="G163" t="s">
+        <v>319</v>
+      </c>
+      <c r="J163" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>32</v>
+      </c>
+      <c r="B164" s="2" t="d">
+        <v>2018-05-15</v>
+      </c>
+      <c r="C164" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" t="s">
+        <v>372</v>
+      </c>
+      <c r="E164" t="s">
+        <v>324</v>
+      </c>
+      <c r="F164" t="s">
+        <v>19</v>
+      </c>
+      <c r="G164" t="s">
+        <v>320</v>
+      </c>
+      <c r="J164" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>32</v>
+      </c>
+      <c r="B165" s="2" t="d">
+        <v>2018-05-17</v>
+      </c>
+      <c r="C165" t="s">
+        <v>5</v>
+      </c>
+      <c r="D165" t="s">
+        <v>373</v>
+      </c>
+      <c r="E165" t="s">
+        <v>324</v>
+      </c>
+      <c r="F165" t="s">
+        <v>19</v>
+      </c>
+      <c r="G165" t="s">
+        <v>321</v>
+      </c>
+      <c r="J165" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>32</v>
+      </c>
+      <c r="B166" s="2" t="d">
+        <v>2018-05-23</v>
+      </c>
+      <c r="C166" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166" t="s">
+        <v>374</v>
+      </c>
+      <c r="E166" t="s">
+        <v>324</v>
+      </c>
+      <c r="F166" t="s">
+        <v>19</v>
+      </c>
+      <c r="G166" t="s">
+        <v>322</v>
+      </c>
+      <c r="J166" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>32</v>
+      </c>
+      <c r="B167" s="2" t="d">
+        <v>2018-06-11</v>
+      </c>
+      <c r="C167" t="s">
+        <v>5</v>
+      </c>
+      <c r="D167" t="s">
+        <v>375</v>
+      </c>
+      <c r="E167" t="s">
+        <v>324</v>
+      </c>
+      <c r="F167" t="s">
+        <v>19</v>
+      </c>
+      <c r="G167" t="s">
+        <v>323</v>
+      </c>
+      <c r="J167" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>32</v>
+      </c>
+      <c r="B168" s="2" t="d">
+        <v>2018-05-21</v>
+      </c>
+      <c r="C168" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" t="s">
+        <v>386</v>
+      </c>
+      <c r="E168" t="s">
+        <v>380</v>
+      </c>
+      <c r="F168" t="s">
+        <v>19</v>
+      </c>
+      <c r="G168" t="s">
+        <v>377</v>
+      </c>
+      <c r="J168" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>32</v>
+      </c>
+      <c r="B169" s="2" t="d">
+        <v>2018-05-25</v>
+      </c>
+      <c r="C169" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" t="s">
+        <v>387</v>
+      </c>
+      <c r="E169" t="s">
+        <v>380</v>
+      </c>
+      <c r="F169" t="s">
+        <v>19</v>
+      </c>
+      <c r="G169" t="s">
+        <v>378</v>
+      </c>
+      <c r="J169" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>32</v>
+      </c>
+      <c r="B170" s="2" t="d">
+        <v>2018-05-21</v>
+      </c>
+      <c r="C170" t="s">
+        <v>5</v>
+      </c>
+      <c r="D170" t="s">
+        <v>388</v>
+      </c>
+      <c r="E170" t="s">
+        <v>380</v>
+      </c>
+      <c r="F170" t="s">
+        <v>19</v>
+      </c>
+      <c r="G170" t="s">
+        <v>379</v>
+      </c>
+      <c r="J170" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>32</v>
+      </c>
+      <c r="B171" s="2" t="d">
+        <v>2018-05-21</v>
+      </c>
+      <c r="C171" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" t="s">
+        <v>385</v>
+      </c>
+      <c r="E171" t="s">
+        <v>381</v>
+      </c>
+      <c r="F171" t="s">
+        <v>19</v>
+      </c>
+      <c r="G171" t="s">
+        <v>181</v>
+      </c>
+      <c r="J171" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E121" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E122" t="s">
-        <v>22</v>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>32</v>
+      </c>
+      <c r="B172" s="2" t="d">
+        <v>2018-06-06</v>
+      </c>
+      <c r="C172" t="s">
+        <v>15</v>
+      </c>
+      <c r="D172" t="s">
+        <v>383</v>
+      </c>
+      <c r="E172" t="s">
+        <v>381</v>
+      </c>
+      <c r="F172" t="s">
+        <v>19</v>
+      </c>
+      <c r="G172" t="s">
+        <v>182</v>
+      </c>
+      <c r="J172" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>32</v>
+      </c>
+      <c r="B173" s="2" t="d">
+        <v>2018-05-16</v>
+      </c>
+      <c r="C173" t="s">
+        <v>5</v>
+      </c>
+      <c r="D173" t="s">
+        <v>384</v>
+      </c>
+      <c r="E173" t="s">
+        <v>381</v>
+      </c>
+      <c r="F173" t="s">
+        <v>19</v>
+      </c>
+      <c r="G173" t="s">
+        <v>183</v>
+      </c>
+      <c r="J173" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>32</v>
+      </c>
+      <c r="B174" s="2" t="d">
+        <v>2018-06-20</v>
+      </c>
+      <c r="C174" t="s">
+        <v>5</v>
+      </c>
+      <c r="D174" t="s">
+        <v>389</v>
+      </c>
+      <c r="E174" t="s">
+        <v>391</v>
+      </c>
+      <c r="F174" t="s">
+        <v>382</v>
+      </c>
+      <c r="G174" t="s">
+        <v>391</v>
+      </c>
+      <c r="J174" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A175" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B175" s="2" t="d">
+        <v>2018-06-22</v>
+      </c>
+      <c r="C175" t="s">
+        <v>5</v>
+      </c>
+      <c r="D175" t="s">
+        <v>390</v>
+      </c>
+      <c r="E175" t="s">
+        <v>391</v>
+      </c>
+      <c r="F175" t="s">
+        <v>382</v>
+      </c>
+      <c r="G175" t="s">
+        <v>392</v>
+      </c>
+      <c r="J175" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A176" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B176" s="2" t="d">
+        <v>2018-05-23</v>
+      </c>
+      <c r="C176" t="s">
+        <v>5</v>
+      </c>
+      <c r="D176" t="s">
+        <v>423</v>
+      </c>
+      <c r="E176" t="s">
+        <v>393</v>
+      </c>
+      <c r="F176" t="s">
+        <v>409</v>
+      </c>
+      <c r="G176" t="s">
+        <v>394</v>
+      </c>
+      <c r="J176" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A177" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B177" s="2" t="d">
+        <v>2018-06-14</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177" t="s">
+        <v>424</v>
+      </c>
+      <c r="E177" t="s">
+        <v>410</v>
+      </c>
+      <c r="F177" t="s">
+        <v>409</v>
+      </c>
+      <c r="G177" t="s">
+        <v>395</v>
+      </c>
+      <c r="J177" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A178" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B178" s="2" t="d">
+        <v>2018-06-06</v>
+      </c>
+      <c r="C178" t="s">
+        <v>5</v>
+      </c>
+      <c r="D178" t="s">
+        <v>425</v>
+      </c>
+      <c r="E178" t="s">
+        <v>411</v>
+      </c>
+      <c r="F178" t="s">
+        <v>409</v>
+      </c>
+      <c r="G178" t="s">
+        <v>396</v>
+      </c>
+      <c r="J178" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A179" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B179" s="2" t="d">
+        <v>2018-05-21</v>
+      </c>
+      <c r="C179" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" t="s">
+        <v>426</v>
+      </c>
+      <c r="E179" t="s">
+        <v>412</v>
+      </c>
+      <c r="F179" t="s">
+        <v>409</v>
+      </c>
+      <c r="G179" t="s">
+        <v>397</v>
+      </c>
+      <c r="J179" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A180" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B180" s="2" t="d">
+        <v>2018-05-23</v>
+      </c>
+      <c r="C180" t="s">
+        <v>5</v>
+      </c>
+      <c r="D180" t="s">
+        <v>427</v>
+      </c>
+      <c r="E180" t="s">
+        <v>413</v>
+      </c>
+      <c r="F180" t="s">
+        <v>409</v>
+      </c>
+      <c r="G180" t="s">
+        <v>398</v>
+      </c>
+      <c r="J180" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A181" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B181" s="2" t="d">
+        <v>2018-05-23</v>
+      </c>
+      <c r="C181" t="s">
+        <v>5</v>
+      </c>
+      <c r="D181" t="s">
+        <v>428</v>
+      </c>
+      <c r="E181" t="s">
+        <v>414</v>
+      </c>
+      <c r="F181" t="s">
+        <v>409</v>
+      </c>
+      <c r="G181" t="s">
+        <v>399</v>
+      </c>
+      <c r="J181" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A182" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B182" s="2" t="d">
+        <v>2018-06-13</v>
+      </c>
+      <c r="C182" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182" t="s">
+        <v>429</v>
+      </c>
+      <c r="E182" t="s">
+        <v>415</v>
+      </c>
+      <c r="F182" t="s">
+        <v>409</v>
+      </c>
+      <c r="G182" t="s">
+        <v>400</v>
+      </c>
+      <c r="J182" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B183" s="2" t="d">
+        <v>2018-05-14</v>
+      </c>
+      <c r="C183" t="s">
+        <v>5</v>
+      </c>
+      <c r="D183" t="s">
+        <v>430</v>
+      </c>
+      <c r="E183" t="s">
+        <v>14</v>
+      </c>
+      <c r="F183" t="s">
+        <v>409</v>
+      </c>
+      <c r="G183" t="s">
+        <v>401</v>
+      </c>
+      <c r="J183" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A184" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B184" s="2" t="d">
+        <v>2018-05-14</v>
+      </c>
+      <c r="C184" t="s">
+        <v>5</v>
+      </c>
+      <c r="D184" t="s">
+        <v>431</v>
+      </c>
+      <c r="E184" t="s">
+        <v>416</v>
+      </c>
+      <c r="F184" t="s">
+        <v>409</v>
+      </c>
+      <c r="G184" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="J184" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A185" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B185" s="2" t="d">
+        <v>2018-05-25</v>
+      </c>
+      <c r="C185" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" t="s">
+        <v>432</v>
+      </c>
+      <c r="E185" t="s">
+        <v>417</v>
+      </c>
+      <c r="F185" t="s">
+        <v>409</v>
+      </c>
+      <c r="G185" t="s">
+        <v>403</v>
+      </c>
+      <c r="J185" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A186" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B186" s="2" t="d">
+        <v>2018-06-11</v>
+      </c>
+      <c r="C186" t="s">
+        <v>5</v>
+      </c>
+      <c r="D186" t="s">
+        <v>433</v>
+      </c>
+      <c r="E186" t="s">
+        <v>418</v>
+      </c>
+      <c r="F186" t="s">
+        <v>409</v>
+      </c>
+      <c r="G186" t="s">
+        <v>404</v>
+      </c>
+      <c r="H186" t="s">
+        <v>135</v>
+      </c>
+      <c r="J186" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A187" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B187" s="2" t="d">
+        <v>2018-06-15</v>
+      </c>
+      <c r="C187" t="s">
+        <v>5</v>
+      </c>
+      <c r="D187" t="s">
+        <v>434</v>
+      </c>
+      <c r="E187" t="s">
+        <v>419</v>
+      </c>
+      <c r="F187" t="s">
+        <v>409</v>
+      </c>
+      <c r="G187" t="s">
+        <v>405</v>
+      </c>
+      <c r="H187" t="s">
+        <v>135</v>
+      </c>
+      <c r="J187" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A188" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B188" s="2" t="d">
+        <v>2018-05-16</v>
+      </c>
+      <c r="C188" t="s">
+        <v>5</v>
+      </c>
+      <c r="D188" t="s">
+        <v>435</v>
+      </c>
+      <c r="E188" t="s">
+        <v>420</v>
+      </c>
+      <c r="F188" t="s">
+        <v>409</v>
+      </c>
+      <c r="G188" t="s">
+        <v>406</v>
+      </c>
+      <c r="J188" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A189" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B189" s="2" t="d">
+        <v>2018-05-16</v>
+      </c>
+      <c r="C189" t="s">
+        <v>5</v>
+      </c>
+      <c r="D189" t="s">
+        <v>436</v>
+      </c>
+      <c r="E189" t="s">
+        <v>421</v>
+      </c>
+      <c r="F189" t="s">
+        <v>409</v>
+      </c>
+      <c r="G189" t="s">
+        <v>408</v>
+      </c>
+      <c r="J189" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A190" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B190" s="2" t="d">
+        <v>2018-06-04</v>
+      </c>
+      <c r="C190" t="s">
+        <v>15</v>
+      </c>
+      <c r="D190" t="s">
+        <v>437</v>
+      </c>
+      <c r="E190" t="s">
+        <v>422</v>
+      </c>
+      <c r="F190" t="s">
+        <v>409</v>
+      </c>
+      <c r="G190" t="s">
+        <v>407</v>
+      </c>
+      <c r="J190" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -6258,17 +8552,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
